--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306project/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A02705-ABC5-408A-8398-917B18788B45}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA400413-5554-4736-8B62-244355709F17}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_DEILLON_JONAS" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -151,13 +151,25 @@
     </r>
   </si>
   <si>
-    <t>Remplisage du docuemnt BusinessCase</t>
+    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
   </si>
   <si>
-    <t>Remplissage du docuement Cahier des charges</t>
+    <t>Daily Scrum</t>
   </si>
   <si>
-    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
+    <t>Remplisage du document BusinessCase</t>
+  </si>
+  <si>
+    <t>Remplissage du document Cahier des charges</t>
+  </si>
+  <si>
+    <t>Documentation sur Emulator.js</t>
+  </si>
+  <si>
+    <t>Test de Emulator.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le sprint étant très court je n'ai pas beaucoup de réfléxion à faire mais c'était intéressant de devoir bien répartir les taches pour ce debut de projet afin doptimiser le temps mis a disposition. </t>
   </si>
 </sst>
 </file>
@@ -525,104 +537,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1522,21 +1534,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1556,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -1574,48 +1586,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1627,46 +1639,58 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1675,47 +1699,49 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1727,44 +1753,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1776,44 +1802,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1825,44 +1851,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1874,44 +1900,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1923,44 +1949,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1972,44 +1998,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2021,44 +2047,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2070,44 +2096,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2119,13 +2145,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2133,53 +2159,51 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2196,38 +2220,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -2351,16 +2377,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2394,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -2398,38 +2424,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2441,44 +2467,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2490,44 +2516,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2539,44 +2565,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2588,44 +2614,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2637,44 +2663,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2686,44 +2712,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2735,44 +2761,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2784,44 +2810,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2833,44 +2859,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2882,44 +2908,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2931,13 +2957,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2948,16 +2974,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2969,77 +3066,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3163,17 +3189,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3386,6 +3401,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -3395,19 +3421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3424,4 +3437,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306project/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A02705-ABC5-408A-8398-917B18788B45}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FBF2BC-D909-472E-938B-EDF660D98189}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_DEILLON_JONAS" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -151,13 +151,25 @@
     </r>
   </si>
   <si>
-    <t>Remplisage du docuemnt BusinessCase</t>
+    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
   </si>
   <si>
-    <t>Remplissage du docuement Cahier des charges</t>
+    <t>Daily Scrum</t>
   </si>
   <si>
-    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
+    <t>Remplisage du document BusinessCase</t>
+  </si>
+  <si>
+    <t>Remplissage du document Cahier des charges</t>
+  </si>
+  <si>
+    <t>Documentation sur Emulator.js</t>
+  </si>
+  <si>
+    <t>Test de Emulator.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le sprint étant très court je n'ai pas beaucoup de réfléxion à faire mais c'était intéressant de devoir bien répartir les taches pour ce debut de projet afin doptimiser le temps mis a disposition. </t>
   </si>
 </sst>
 </file>
@@ -1169,6 +1181,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,10 +1537,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1595,7 @@
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="7">
@@ -1589,7 +1605,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="8">
@@ -1630,28 +1646,42 @@
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
@@ -1675,12 +1705,14 @@
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
     </row>
@@ -2133,7 +2165,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FBF2BC-D909-472E-938B-EDF660D98189}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09B778D-3C33-4780-A0B1-3F27F52E57A0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_DEILLON_JONAS!$A$1:$D$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Journal_NOM_PRENOM4!$A$1:$D$83</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +45,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Projet :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Arcadia      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+  </si>
+  <si>
+    <t>Jonas Deillon</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Travail effectué</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>[H.h]</t>
+  </si>
+  <si>
+    <t>Remplisage du document BusinessCase</t>
+  </si>
+  <si>
+    <t>Remplissage du document Cahier des charges</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Réflexion personnelle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓↓↓</t>
+    </r>
+  </si>
+  <si>
+    <t>Total &gt;</t>
+  </si>
+  <si>
+    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
+  </si>
+  <si>
+    <t>Daily Scrum</t>
+  </si>
+  <si>
+    <t>Documentation sur Emulator.js</t>
+  </si>
+  <si>
+    <t>Test de Emulator.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le sprint étant très court je n'ai pas beaucoup de réfléxion à faire mais c'était intéressant de devoir bien répartir les taches pour ce debut de projet afin doptimiser le temps mis a disposition. </t>
+  </si>
+  <si>
+    <t>Total général &gt;</t>
+  </si>
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -78,98 +174,16 @@
     <t>[Nom Prénom du candidat]</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Travail effectué</t>
-  </si>
-  <si>
-    <t>[H.h]</t>
-  </si>
-  <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>Total &gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Réflexion personnelle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>↓↓↓</t>
-    </r>
-  </si>
-  <si>
     <t>[no candidat]</t>
   </si>
   <si>
-    <t>Total général &gt;</t>
+    <t>Sprint review</t>
   </si>
   <si>
-    <t>Jonas Deillon</t>
+    <t>Sprint planning</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Projet :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Arcadia      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-  </si>
-  <si>
-    <t>Cette première semaine comportait quelque peu de théorie, mais celle-ci était néanmoins nécessaire, ainsi qu’une certaine mise en place. Je trouve toujours très intéressants les projets de groupe.</t>
-  </si>
-  <si>
-    <t>Daily Scrum</t>
-  </si>
-  <si>
-    <t>Remplisage du document BusinessCase</t>
-  </si>
-  <si>
-    <t>Remplissage du document Cahier des charges</t>
-  </si>
-  <si>
-    <t>Documentation sur Emulator.js</t>
-  </si>
-  <si>
-    <t>Test de Emulator.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le sprint étant très court je n'ai pas beaucoup de réfléxion à faire mais c'était intéressant de devoir bien répartir les taches pour ce debut de projet afin doptimiser le temps mis a disposition. </t>
+    <t xml:space="preserve">Documentation  </t>
   </si>
 </sst>
 </file>
@@ -537,104 +551,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1551,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A19"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1562,7 +1576,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
@@ -1572,14 +1586,14 @@
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1591,11 +1605,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="26">
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="7">
@@ -1603,40 +1617,40 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -1644,64 +1658,64 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>46003</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17"/>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
@@ -1709,99 +1723,113 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="13">
+        <v>46009</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="7">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="8">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>0</v>
+        <v>3.5500000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
@@ -1809,48 +1837,48 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -1858,48 +1886,48 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -1907,48 +1935,48 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -1956,48 +1984,48 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -2005,48 +2033,48 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -2054,48 +2082,48 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -2103,48 +2131,48 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -2152,66 +2180,64 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>5.5</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="A84" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2228,38 +2254,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -2394,7 +2422,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2402,24 +2430,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2431,42 +2459,42 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -2474,48 +2502,48 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
@@ -2523,48 +2551,48 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
@@ -2572,48 +2600,48 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
@@ -2621,48 +2649,48 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
@@ -2670,48 +2698,48 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
@@ -2719,48 +2747,48 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
@@ -2768,48 +2796,48 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
@@ -2817,48 +2845,48 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" s="9">
         <f>SUM(D62:D66)</f>
@@ -2866,48 +2894,48 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="9">
         <f>SUM(D69:D73)</f>
@@ -2915,48 +2943,48 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81" s="9">
         <f>SUM(D76:D80)</f>
@@ -2964,16 +2992,16 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
@@ -2981,15 +3009,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="A84" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3001,77 +3100,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3186,26 +3214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3418,28 +3426,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3456,4 +3463,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\OneDrive - EDUETATFR\02.EMF\3.3eme annee\Module 306\306-G2-ArcadiaBox\306-G2-ArcadiaBox\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09B778D-3C33-4780-A0B1-3F27F52E57A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C8584-3F8B-4C59-B556-80744EFED626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_DEILLON_JONAS" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -185,6 +185,12 @@
   <si>
     <t xml:space="preserve">Documentation  </t>
   </si>
+  <si>
+    <t>Mise en place su système de récupération de score</t>
+  </si>
+  <si>
+    <t>Ce sprint était assez intense, car je me suis beaucoup concentré sur une tâche jusqu’à y parvenir. Ma persévérance a mené à un résultat concluant, avec un système fonctionnel, ce qui constitue un point positif. Ce sprint était principalement axé sur la réalisation, mais nous avons également remarqué que la documentation est primordiale et que nous l’avons quelque peu négligée.</t>
+  </si>
 </sst>
 </file>
 
@@ -551,6 +557,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -587,6 +597,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -599,56 +613,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1195,10 +1201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,21 +1554,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1576,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -1604,8 +1606,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1616,36 +1618,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1657,60 +1659,60 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1722,60 +1724,64 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>46009</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1784,47 +1790,49 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>3.5500000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1836,44 +1844,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1885,44 +1893,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1934,44 +1942,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1983,44 +1991,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2032,44 +2040,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2081,44 +2089,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2130,44 +2138,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2179,13 +2187,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2193,19 +2201,85 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2222,72 +2296,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -2411,16 +2419,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2436,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -2458,38 +2466,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2501,44 +2509,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2550,44 +2558,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2599,44 +2607,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2648,44 +2656,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2697,44 +2705,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2746,44 +2754,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2795,44 +2803,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2844,44 +2852,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2893,44 +2901,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2942,44 +2950,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2991,13 +2999,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -3008,87 +3016,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3100,6 +3037,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3214,6 +3222,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3426,27 +3454,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3463,23 +3490,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\OneDrive - EDUETATFR\02.EMF\3.3eme annee\Module 306\306-G2-ArcadiaBox\306-G2-ArcadiaBox\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C8584-3F8B-4C59-B556-80744EFED626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09B778D-3C33-4780-A0B1-3F27F52E57A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_DEILLON_JONAS" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -185,12 +185,6 @@
   <si>
     <t xml:space="preserve">Documentation  </t>
   </si>
-  <si>
-    <t>Mise en place su système de récupération de score</t>
-  </si>
-  <si>
-    <t>Ce sprint était assez intense, car je me suis beaucoup concentré sur une tâche jusqu’à y parvenir. Ma persévérance a mené à un résultat concluant, avec un système fonctionnel, ce qui constitue un point positif. Ce sprint était principalement axé sur la réalisation, mais nous avons également remarqué que la documentation est primordiale et que nous l’avons quelque peu négligée.</t>
-  </si>
 </sst>
 </file>
 
@@ -557,104 +551,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1201,6 +1195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,21 +1552,21 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D26"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1574,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -1606,8 +1604,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1618,36 +1616,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1659,60 +1657,60 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>46003</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1724,64 +1722,60 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>46009</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1790,49 +1784,47 @@
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
-        <v>5.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1844,44 +1836,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1893,44 +1885,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1942,44 +1934,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1991,44 +1983,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2040,44 +2032,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2089,44 +2081,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2138,44 +2130,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2187,13 +2179,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -2201,53 +2193,51 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
@@ -2264,38 +2254,40 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
@@ -2419,16 +2411,16 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="3" width="31.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="218" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
+    <col min="218" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
@@ -2436,7 +2428,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>18</v>
       </c>
@@ -2446,7 +2438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -2466,38 +2458,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2509,44 +2501,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2558,44 +2550,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2607,44 +2599,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2656,44 +2648,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2705,44 +2697,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2754,44 +2746,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2803,44 +2795,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2852,44 +2844,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2901,44 +2893,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2950,44 +2942,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2999,13 +2991,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
@@ -3016,16 +3008,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3037,77 +3100,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3222,26 +3214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3454,10 +3426,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3474,20 +3477,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\deillonj04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09B778D-3C33-4780-A0B1-3F27F52E57A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -185,6 +185,15 @@
   <si>
     <t xml:space="preserve">Documentation  </t>
   </si>
+  <si>
+    <t>Mise en place su système de récupération de score</t>
+  </si>
+  <si>
+    <t>Ce sprint était assez intense, car je me suis beaucoup concentré sur une tâche jusqu’à y parvenir. Ma persévérance a mené à un résultat concluant, avec un système fonctionnel, ce qui constitue un point positif. Ce sprint était principalement axé sur la réalisation, mais nous avons également remarqué que la documentation est primordiale et que nous l’avons quelque peu négligée.</t>
+  </si>
+  <si>
+    <t>Implémentation du l'émulateur en production</t>
+  </si>
 </sst>
 </file>
 
@@ -655,29 +664,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1195,10 +1182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1551,10 +1534,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1764,9 +1747,6 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
@@ -1789,21 +1769,33 @@
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="13">
+        <v>46010</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
@@ -1833,7 +1825,7 @@
       </c>
       <c r="D32" s="9">
         <f>SUM(D27:D31)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,7 +2185,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>9.0500000000000007</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2197,7 @@
       <c r="D84" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="81">
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2215,7 +2207,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -2285,32 +2276,24 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D11 D20:D22 D24:D25 D27">
+    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
@@ -3214,6 +3197,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3426,7 +3418,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -3437,16 +3429,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3465,7 +3456,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3474,12 +3465,4 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\deillonj04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A0F92C8-0307-4514-8697-0D3672FBC9CC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -186,13 +186,31 @@
     <t xml:space="preserve">Documentation  </t>
   </si>
   <si>
-    <t>Mise en place su système de récupération de score</t>
-  </si>
-  <si>
     <t>Ce sprint était assez intense, car je me suis beaucoup concentré sur une tâche jusqu’à y parvenir. Ma persévérance a mené à un résultat concluant, avec un système fonctionnel, ce qui constitue un point positif. Ce sprint était principalement axé sur la réalisation, mais nous avons également remarqué que la documentation est primordiale et que nous l’avons quelque peu négligée.</t>
   </si>
   <si>
-    <t>Implémentation du l'émulateur en production</t>
+    <t>Mise en place du système de récupération de score</t>
+  </si>
+  <si>
+    <t>Implémentation de l'émulateur en production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai renconcontré un gros défi technique par rapport a la récupération de scores et je n'ai donc pas pu terrminer cette fonctiionalitée pendant ce sprint. </t>
+  </si>
+  <si>
+    <t>Implémentation de l'émulateur pour Galaga</t>
+  </si>
+  <si>
+    <t>Stylisation du site</t>
+  </si>
+  <si>
+    <t>Implémentation de l'envoi des score avec détéction des game over</t>
+  </si>
+  <si>
+    <t>Correction de multiples bugs dans l'application</t>
+  </si>
+  <si>
+    <t>Finalisation de l'application</t>
   </si>
 </sst>
 </file>
@@ -511,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -560,6 +578,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -596,6 +618,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -608,55 +634,55 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1134,6 +1160,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1157,17 +1194,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1534,10 +1560,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1614,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="37">
         <v>45996</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1600,35 +1626,35 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1641,59 +1667,59 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1706,56 +1732,56 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>46009</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1768,55 +1794,52 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>46010</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>46010</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1829,43 +1852,51 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="14">
+        <v>46030</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="7">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1874,47 +1905,63 @@
       </c>
       <c r="D39" s="9">
         <f>SUM(D34:D38)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="14">
+        <v>46031</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="8">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1923,47 +1970,57 @@
       </c>
       <c r="D46" s="9">
         <f>SUM(D41:D45)</f>
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="14">
+        <v>46037</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="7">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1972,47 +2029,49 @@
       </c>
       <c r="D53" s="9">
         <f>SUM(D48:D52)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14">
+        <v>46038</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2025,43 +2084,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2074,43 +2133,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2123,43 +2182,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2172,10 +2231,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2185,19 +2244,84 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>15.55</v>
+        <v>29.950000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:C13"/>
@@ -2213,87 +2337,24 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11 D20:D22 D24:D25 D27">
-    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27 D6:D11 D20:D22 D24:D25">
+    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D32">
@@ -2442,37 +2503,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2485,43 +2546,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2534,43 +2595,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2583,43 +2644,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2632,43 +2693,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2681,43 +2742,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2730,43 +2791,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2779,43 +2840,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2828,43 +2889,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2877,43 +2938,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2926,43 +2987,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2975,10 +3036,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
@@ -2992,86 +3053,15 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3083,6 +3073,77 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3206,6 +3267,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3418,17 +3490,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -3438,6 +3499,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3454,15 +3526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A0F92C8-0307-4514-8697-0D3672FBC9CC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F442BBDB-03AF-43F8-A5AA-DC6F8F51D4CD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Finalisation de l'application</t>
+  </si>
+  <si>
+    <t>Terminer la documentation et les derniers correctifs</t>
   </si>
 </sst>
 </file>
@@ -1561,9 +1564,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2042,7 +2045,9 @@
       <c r="A55" s="14">
         <v>46038</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="C55" s="17"/>
       <c r="D55" s="7"/>
     </row>

--- a/documentation/3_1_Journal_Deillon_Jonas.xlsx
+++ b/documentation/3_1_Journal_Deillon_Jonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/jonas_deillon_studentfr_ch/Documents/02.EMF/3.3eme annee/Module 306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F442BBDB-03AF-43F8-A5AA-DC6F8F51D4CD}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{73D04856-16F0-41BE-B657-A52BE9C83EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76B877A-226A-49A2-9F88-5CEF501C9B47}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -215,6 +215,15 @@
   <si>
     <t>Terminer la documentation et les derniers correctifs</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ce sprint était assez normal, j'ai fourni un bon travail et ai implémenté le nouveau jeux. Je nai pas fait beacoup de documentation a nouveau car je devais faire la logique a nouveau pour la récupération des scores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce sprint était un peu plus stressant niveau mental meme si il ne demandait pas plus de travail que les autres, juste l'approche du délai final qui arrivait bientôt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce sprint était relativement court mais j'ai correctement términé les dernières choses a faire. </t>
+  </si>
 </sst>
 </file>
 
@@ -581,10 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -621,20 +626,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -677,15 +694,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1564,9 +1573,9 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1579,85 +1588,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="28">
         <v>45996</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8">
         <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1670,59 +1679,59 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>46003</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1735,56 +1744,56 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>46009</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1797,52 +1806,52 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>46010</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1864,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="24" t="s">
         <v>26</v>
       </c>
@@ -1863,43 +1872,43 @@
       <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>46030</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7">
         <v>3.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1912,59 +1921,59 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>46031</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="19"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8">
         <v>1.9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1977,53 +1986,55 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>46037</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7">
         <v>1.75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2036,47 +2047,51 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>46038</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="7">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2085,47 +2100,49 @@
       </c>
       <c r="D60" s="9">
         <f>SUM(D55:D59)</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2138,43 +2155,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2187,43 +2204,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -2236,7 +2253,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -2249,39 +2266,53 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>29.950000000000003</v>
+        <v>33.400000000000006</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="B69:C69"/>
@@ -2298,13 +2329,15 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
@@ -2312,37 +2345,21 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11 D20:D22 D24:D25 D27">
     <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="En cours">
@@ -2470,75 +2487,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2551,43 +2568,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -2600,43 +2617,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2649,43 +2666,43 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2698,43 +2715,43 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2747,43 +2764,43 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2796,43 +2813,43 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2845,43 +2862,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2894,43 +2911,43 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2943,43 +2960,43 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
@@ -2992,43 +3009,43 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3058,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -3058,15 +3075,86 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -3078,77 +3166,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -3272,17 +3289,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -3495,6 +3501,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
@@ -3504,17 +3521,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3531,4 +3537,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>